--- a/analysis/data_dist_batch_norm.xlsx
+++ b/analysis/data_dist_batch_norm.xlsx
@@ -465,19 +465,19 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.5117863416671753</v>
+        <v>-0.5116623640060425</v>
       </c>
       <c r="C2" t="n">
-        <v>1.954667448997498</v>
+        <v>1.954193949699402</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.624182566217769e-09</v>
+        <v>5.0349657776394e-09</v>
       </c>
       <c r="E2" t="n">
-        <v>1.000187397003174</v>
+        <v>0.9999451041221619</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.5117863416671753</v>
+        <v>-0.5116623640060425</v>
       </c>
     </row>
     <row r="3">
@@ -485,19 +485,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.4005209803581238</v>
+        <v>-0.400379478931427</v>
       </c>
       <c r="C3" t="n">
-        <v>2.495830059051514</v>
+        <v>2.494948387145996</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.299346075178676e-09</v>
+        <v>-3.248365187946689e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9998174905776978</v>
+        <v>0.9994642734527588</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.4005209803581238</v>
+        <v>-0.400379478931427</v>
       </c>
     </row>
     <row r="4">
@@ -505,19 +505,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.6678645014762878</v>
+        <v>-0.6680452227592468</v>
       </c>
       <c r="C4" t="n">
-        <v>1.49718451499939</v>
+        <v>1.497589588165283</v>
       </c>
       <c r="D4" t="n">
-        <v>2.643357177589678e-08</v>
+        <v>1.065869792427065e-08</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999595284461975</v>
+        <v>1.000230073928833</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.6678645014762878</v>
+        <v>-0.6680452227592468</v>
       </c>
     </row>
     <row r="5">
@@ -525,19 +525,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.7272539138793945</v>
+        <v>-0.7266916632652283</v>
       </c>
       <c r="C5" t="n">
-        <v>1.376210689544678</v>
+        <v>1.375146627426147</v>
       </c>
       <c r="D5" t="n">
-        <v>-2.065757165325977e-08</v>
+        <v>-7.05098273101612e-08</v>
       </c>
       <c r="E5" t="n">
-        <v>1.000428557395935</v>
+        <v>0.9996550679206848</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.7272539138793945</v>
+        <v>-0.7266916632652283</v>
       </c>
     </row>
     <row r="6">
@@ -545,19 +545,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6865930557250977</v>
+        <v>-0.6868265867233276</v>
       </c>
       <c r="C6" t="n">
-        <v>1.45628023147583</v>
+        <v>1.456775546073914</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.17189366280968e-09</v>
+        <v>-3.297090600540287e-08</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999372959136963</v>
+        <v>1.000277400016785</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.6865930557250977</v>
+        <v>-0.6868265867233276</v>
       </c>
     </row>
     <row r="7">
@@ -565,19 +565,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.03054635412991047</v>
+        <v>-0.0305499006062746</v>
       </c>
       <c r="C7" t="n">
-        <v>32.39604568481445</v>
+        <v>32.39981079101562</v>
       </c>
       <c r="D7" t="n">
-        <v>6.090684623316633e-10</v>
+        <v>6.212498071533901e-09</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9947782158851624</v>
+        <v>0.9948937892913818</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.03054635412991047</v>
+        <v>-0.0305499006062746</v>
       </c>
     </row>
     <row r="8">
@@ -585,19 +585,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-1.288592219352722</v>
+        <v>-1.288926005363464</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7756930589675903</v>
+        <v>0.7758940458297729</v>
       </c>
       <c r="D8" t="n">
-        <v>-1.383803578391962e-07</v>
+        <v>-1.00699315552788e-08</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9997773170471191</v>
+        <v>1.000036358833313</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7756930589675903</v>
+        <v>0.7758940458297729</v>
       </c>
     </row>
     <row r="9">
@@ -605,19 +605,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.2398820519447327</v>
+        <v>-0.2399178296327591</v>
       </c>
       <c r="C9" t="n">
-        <v>4.168200016021729</v>
+        <v>4.168821811676025</v>
       </c>
       <c r="D9" t="n">
-        <v>1.396796989183713e-08</v>
+        <v>8.07218754061978e-08</v>
       </c>
       <c r="E9" t="n">
-        <v>0.999939501285553</v>
+        <v>1.000088691711426</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2398820519447327</v>
+        <v>-0.2399178296327591</v>
       </c>
     </row>
     <row r="10">
@@ -645,19 +645,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.8989670872688293</v>
+        <v>-0.8986355066299438</v>
       </c>
       <c r="C11" t="n">
-        <v>1.132149457931519</v>
+        <v>1.131707191467285</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.601304241688922e-05</v>
+        <v>-8.690269896760583e-05</v>
       </c>
       <c r="E11" t="n">
-        <v>1.000304698944092</v>
+        <v>0.9999236464500427</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.8989670872688293</v>
+        <v>-0.8986355066299438</v>
       </c>
     </row>
     <row r="12">
@@ -665,19 +665,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>-1.112741589546204</v>
+        <v>-1.113388299942017</v>
       </c>
       <c r="C12" t="n">
-        <v>0.912164568901062</v>
+        <v>0.912686824798584</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.00024208847025875</v>
+        <v>-0.0002465653815306723</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9997521638870239</v>
+        <v>1.000329256057739</v>
       </c>
       <c r="F12" t="n">
-        <v>-1.112741589546204</v>
+        <v>-1.113388299942017</v>
       </c>
     </row>
     <row r="13">
@@ -685,19 +685,19 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>-2.545086622238159</v>
+        <v>-2.389545917510986</v>
       </c>
       <c r="C13" t="n">
-        <v>1.424591779708862</v>
+        <v>1.567014217376709</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.05102606117725372</v>
+        <v>0.09627283364534378</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8000012040138245</v>
+        <v>0.7973574995994568</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8574915528297424</v>
+        <v>1.001788139343262</v>
       </c>
     </row>
     <row r="14">
@@ -705,19 +705,19 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.7269502282142639</v>
+        <v>-0.7273082137107849</v>
       </c>
       <c r="C14" t="n">
-        <v>1.416067600250244</v>
+        <v>1.416565179824829</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.695861859247088e-05</v>
+        <v>-0.0001447817776352167</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999119639396667</v>
+        <v>1.000311136245728</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.7269502282142639</v>
+        <v>-0.7273082137107849</v>
       </c>
     </row>
     <row r="15">
@@ -725,19 +725,19 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>-2.233182907104492</v>
+        <v>-2.266335964202881</v>
       </c>
       <c r="C15" t="n">
-        <v>2.141918182373047</v>
+        <v>2.110047101974487</v>
       </c>
       <c r="D15" t="n">
-        <v>0.02063525281846523</v>
+        <v>-0.01185746677219868</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9846903085708618</v>
+        <v>0.9849788546562195</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4831437170505524</v>
+        <v>-0.5157840847969055</v>
       </c>
     </row>
     <row r="16">
@@ -745,19 +745,19 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.8982046246528625</v>
+        <v>-0.8981181979179382</v>
       </c>
       <c r="C16" t="n">
-        <v>1.150496602058411</v>
+        <v>1.150301933288574</v>
       </c>
       <c r="D16" t="n">
-        <v>1.802712722565047e-05</v>
+        <v>-1.879341652966104e-05</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9996159076690674</v>
+        <v>0.9994787573814392</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.8982046246528625</v>
+        <v>-0.8981181979179382</v>
       </c>
     </row>
     <row r="17">
@@ -765,19 +765,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>-16.03042602539062</v>
+        <v>-16.03202247619629</v>
       </c>
       <c r="C17" t="n">
-        <v>9.746706962585449</v>
+        <v>9.749004364013672</v>
       </c>
       <c r="D17" t="n">
-        <v>0.02065337263047695</v>
+        <v>0.0214819647371769</v>
       </c>
       <c r="E17" t="n">
-        <v>0.8293983936309814</v>
+        <v>0.8295237421989441</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1404096633195877</v>
+        <v>-0.1396054029464722</v>
       </c>
     </row>
     <row r="18">
@@ -785,19 +785,19 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>-4.011379718780518</v>
+        <v>-4.013617992401123</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3303180336952209</v>
+        <v>0.3284107446670532</v>
       </c>
       <c r="D18" t="n">
-        <v>8.291005360661075e-05</v>
+        <v>-0.00184957345481962</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999394416809082</v>
+        <v>1.000015735626221</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2432441115379333</v>
+        <v>0.241330161690712</v>
       </c>
     </row>
     <row r="19">
@@ -805,19 +805,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>-4.012355804443359</v>
+        <v>-4.009960651397705</v>
       </c>
       <c r="C19" t="n">
-        <v>0.310829371213913</v>
+        <v>0.3138388395309448</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0006491544772870839</v>
+        <v>0.002316046738997102</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999635219573975</v>
+        <v>1.000105619430542</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2547205984592438</v>
+        <v>0.2577220797538757</v>
       </c>
     </row>
     <row r="20">
@@ -825,19 +825,19 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>-11.11868190765381</v>
+        <v>-11.1481990814209</v>
       </c>
       <c r="C20" t="n">
-        <v>24.28379249572754</v>
+        <v>24.26718902587891</v>
       </c>
       <c r="D20" t="n">
-        <v>0.02218396402895451</v>
+        <v>-0.003270263550803065</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8548679947853088</v>
+        <v>0.8551797866821289</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1904390603303909</v>
+        <v>0.1650462001562119</v>
       </c>
     </row>
     <row r="21">
@@ -845,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.8987915515899658</v>
+        <v>-0.8986013531684875</v>
       </c>
       <c r="C21" t="n">
-        <v>1.142339706420898</v>
+        <v>1.142367243766785</v>
       </c>
       <c r="D21" t="n">
-        <v>-7.912985165603459e-05</v>
+        <v>3.938821464544162e-05</v>
       </c>
       <c r="E21" t="n">
-        <v>1.000101566314697</v>
+        <v>1.000021815299988</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.8987915515899658</v>
+        <v>-0.8986013531684875</v>
       </c>
     </row>
     <row r="22">
@@ -865,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.6678760051727295</v>
+        <v>-0.6682838797569275</v>
       </c>
       <c r="C22" t="n">
-        <v>1.52339494228363</v>
+        <v>1.524213194847107</v>
       </c>
       <c r="D22" t="n">
-        <v>-4.076954064657912e-05</v>
+        <v>-7.498148625018075e-05</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999204277992249</v>
+        <v>1.000479936599731</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6678760051727295</v>
+        <v>-0.6682838797569275</v>
       </c>
     </row>
     <row r="23">
@@ -885,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>-1.112922072410583</v>
+        <v>-1.113099098205566</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9207278490066528</v>
+        <v>0.9208547472953796</v>
       </c>
       <c r="D23" t="n">
-        <v>-1.784895357559435e-05</v>
+        <v>-2.853445039363578e-05</v>
       </c>
       <c r="E23" t="n">
-        <v>1.000094056129456</v>
+        <v>1.000243425369263</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.112922072410583</v>
+        <v>-1.113099098205566</v>
       </c>
     </row>
     <row r="24">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.4005434811115265</v>
+        <v>-0.4005438089370728</v>
       </c>
       <c r="C24" t="n">
-        <v>2.520446300506592</v>
+        <v>2.520484685897827</v>
       </c>
       <c r="D24" t="n">
-        <v>-2.236060936411377e-05</v>
+        <v>-1.732759119477123e-05</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9998206496238708</v>
+        <v>0.9998339414596558</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.4005434811115265</v>
+        <v>-0.4005438089370728</v>
       </c>
     </row>
     <row r="25">
@@ -925,19 +925,19 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>-4.011646747589111</v>
+        <v>-4.014179706573486</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3171038627624512</v>
+        <v>0.314416378736496</v>
       </c>
       <c r="D25" t="n">
-        <v>8.899058593669906e-05</v>
+        <v>-0.002587162889540195</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999838471412659</v>
+        <v>0.9999481439590454</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2492907345294952</v>
+        <v>0.2466056793928146</v>
       </c>
     </row>
     <row r="26">
@@ -945,19 +945,19 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>-1.113195180892944</v>
+        <v>-1.112575531005859</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9121766090393066</v>
+        <v>0.9118219614028931</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.0001850661792559549</v>
+        <v>-0.0001008061881293543</v>
       </c>
       <c r="E26" t="n">
-        <v>1.000189304351807</v>
+        <v>0.9997082352638245</v>
       </c>
       <c r="F26" t="n">
-        <v>-1.113195180892944</v>
+        <v>-1.112575531005859</v>
       </c>
     </row>
     <row r="27">
@@ -965,19 +965,19 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>-1.634006857872009</v>
+        <v>-1.656438231468201</v>
       </c>
       <c r="C27" t="n">
-        <v>1.470750093460083</v>
+        <v>1.44659423828125</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.002214816631749272</v>
+        <v>-0.02555257081985474</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9965596795082092</v>
+        <v>0.9960061311721802</v>
       </c>
       <c r="F27" t="n">
-        <v>0.6814061403274536</v>
+        <v>0.6576886773109436</v>
       </c>
     </row>
     <row r="28">
@@ -985,19 +985,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>-1.998973965644836</v>
+        <v>-1.994956135749817</v>
       </c>
       <c r="C28" t="n">
-        <v>1.707015991210938</v>
+        <v>1.709696888923645</v>
       </c>
       <c r="D28" t="n">
-        <v>0.008018706925213337</v>
+        <v>0.01131253037601709</v>
       </c>
       <c r="E28" t="n">
-        <v>0.9786508679389954</v>
+        <v>0.9782978296279907</v>
       </c>
       <c r="F28" t="n">
-        <v>-1.543853759765625</v>
+        <v>-1.540000081062317</v>
       </c>
     </row>
     <row r="29">
@@ -1005,19 +1005,19 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.5118654370307922</v>
+        <v>-0.5114721059799194</v>
       </c>
       <c r="C29" t="n">
-        <v>1.973475813865662</v>
+        <v>1.971455097198486</v>
       </c>
       <c r="D29" t="n">
-        <v>-5.684314237441868e-05</v>
+        <v>-0.0001606589357834309</v>
       </c>
       <c r="E29" t="n">
-        <v>1.000232934951782</v>
+        <v>0.9992613792419434</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.5118654370307922</v>
+        <v>-0.5114721059799194</v>
       </c>
     </row>
     <row r="30">
@@ -1025,19 +1025,19 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.7271735668182373</v>
+        <v>-0.7266621589660645</v>
       </c>
       <c r="C30" t="n">
-        <v>1.403704762458801</v>
+        <v>1.402978777885437</v>
       </c>
       <c r="D30" t="n">
-        <v>2.594456964288838e-05</v>
+        <v>0.0001150701282313094</v>
       </c>
       <c r="E30" t="n">
-        <v>1.000360131263733</v>
+        <v>0.9997791647911072</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.7271735668182373</v>
+        <v>-0.7266621589660645</v>
       </c>
     </row>
     <row r="31">
@@ -1045,19 +1045,19 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>-1.112619876861572</v>
+        <v>-1.113001704216003</v>
       </c>
       <c r="C31" t="n">
-        <v>0.9152637720108032</v>
+        <v>0.9150691032409668</v>
       </c>
       <c r="D31" t="n">
-        <v>5.426198913482949e-05</v>
+        <v>-0.0002249072131235152</v>
       </c>
       <c r="E31" t="n">
-        <v>0.9998878240585327</v>
+        <v>0.999980092048645</v>
       </c>
       <c r="F31" t="n">
-        <v>-1.112619876861572</v>
+        <v>-1.113001704216003</v>
       </c>
     </row>
     <row r="32">
@@ -1065,19 +1065,19 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>-1.954257369041443</v>
+        <v>-1.993062019348145</v>
       </c>
       <c r="C32" t="n">
-        <v>2.603383779525757</v>
+        <v>2.561385154724121</v>
       </c>
       <c r="D32" t="n">
-        <v>0.00486223166808486</v>
+        <v>-0.03531530871987343</v>
       </c>
       <c r="E32" t="n">
-        <v>0.9905224442481995</v>
+        <v>0.9898282885551453</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.60700786113739</v>
+        <v>-1.646055817604065</v>
       </c>
     </row>
     <row r="33">
@@ -1085,19 +1085,19 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>-1.594605207443237</v>
+        <v>-1.509499669075012</v>
       </c>
       <c r="C33" t="n">
-        <v>3.034509420394897</v>
+        <v>3.110574245452881</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.01407766621559858</v>
+        <v>0.06794110685586929</v>
       </c>
       <c r="E33" t="n">
-        <v>0.9749020338058472</v>
+        <v>0.9729980826377869</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1918441951274872</v>
+        <v>-0.1094782426953316</v>
       </c>
     </row>
     <row r="34">
@@ -1105,19 +1105,19 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>-1.112960577011108</v>
+        <v>-1.113321185112</v>
       </c>
       <c r="C34" t="n">
-        <v>0.9101802706718445</v>
+        <v>0.9092245697975159</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.0001092436577891931</v>
+        <v>-0.0007972046732902527</v>
       </c>
       <c r="E34" t="n">
-        <v>1.000043272972107</v>
+        <v>0.9997490644454956</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.112960577011108</v>
+        <v>-1.113321185112</v>
       </c>
     </row>
     <row r="35">
@@ -1125,19 +1125,19 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>-1.11278235912323</v>
+        <v>-1.113043665885925</v>
       </c>
       <c r="C35" t="n">
-        <v>0.910076916217804</v>
+        <v>0.9098985195159912</v>
       </c>
       <c r="D35" t="n">
-        <v>7.171968172769994e-05</v>
+        <v>-0.000144001649459824</v>
       </c>
       <c r="E35" t="n">
-        <v>1.000046610832214</v>
+        <v>1.00008749961853</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.11278235912323</v>
+        <v>-1.113043665885925</v>
       </c>
     </row>
     <row r="36">
@@ -1145,19 +1145,19 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>-3.967991352081299</v>
+        <v>-3.968132019042969</v>
       </c>
       <c r="C36" t="n">
-        <v>22.34403991699219</v>
+        <v>22.34945297241211</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.0009727929136715829</v>
+        <v>-0.0002759816707111895</v>
       </c>
       <c r="E36" t="n">
-        <v>0.9998874664306641</v>
+        <v>1.000098586082458</v>
       </c>
       <c r="F36" t="n">
-        <v>0.2443449795246124</v>
+        <v>0.2450935840606689</v>
       </c>
     </row>
     <row r="37">
@@ -1165,19 +1165,19 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>-23.41053009033203</v>
+        <v>-23.3748836517334</v>
       </c>
       <c r="C37" t="n">
-        <v>9.522897720336914</v>
+        <v>9.540134429931641</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01006917282938957</v>
+        <v>0.03262349218130112</v>
       </c>
       <c r="E37" t="n">
-        <v>0.9513686895370483</v>
+        <v>0.9508368968963623</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.2207129448652267</v>
+        <v>-0.1980296224355698</v>
       </c>
     </row>
     <row r="38">
@@ -1185,19 +1185,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>-4.012131214141846</v>
+        <v>-4.012413501739502</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3304096758365631</v>
+        <v>0.329988032579422</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.00184762931894511</v>
+        <v>-0.002258615801110864</v>
       </c>
       <c r="E38" t="n">
-        <v>0.9999182224273682</v>
+        <v>0.999886155128479</v>
       </c>
       <c r="F38" t="n">
-        <v>0.2288645803928375</v>
+        <v>0.2284462004899979</v>
       </c>
     </row>
     <row r="39">
@@ -1205,19 +1205,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>-4.010722160339355</v>
+        <v>-4.010381698608398</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3371903598308563</v>
+        <v>0.337393581867218</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0006884121103212237</v>
+        <v>0.0009022412123158574</v>
       </c>
       <c r="E39" t="n">
-        <v>0.999873161315918</v>
+        <v>0.999841570854187</v>
       </c>
       <c r="F39" t="n">
-        <v>0.2510931789875031</v>
+        <v>0.2512990832328796</v>
       </c>
     </row>
     <row r="40">
@@ -1225,19 +1225,19 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>-4.011087894439697</v>
+        <v>-4.009116649627686</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3324078321456909</v>
+        <v>0.3329926133155823</v>
       </c>
       <c r="D40" t="n">
-        <v>0.000422552868258208</v>
+        <v>0.001113298581913114</v>
       </c>
       <c r="E40" t="n">
-        <v>0.9999079704284668</v>
+        <v>0.9995887875556946</v>
       </c>
       <c r="F40" t="n">
-        <v>0.2492099702358246</v>
+        <v>0.2498213052749634</v>
       </c>
     </row>
     <row r="41">
@@ -1245,19 +1245,19 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>-4.012769222259521</v>
+        <v>-4.013951301574707</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2816270887851715</v>
+        <v>0.2808881103992462</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.0009346804581582546</v>
+        <v>-0.001702800276689231</v>
       </c>
       <c r="E41" t="n">
-        <v>0.9999617338180542</v>
+        <v>1.000064969062805</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2495195418596268</v>
+        <v>0.2487772703170776</v>
       </c>
     </row>
     <row r="42">
@@ -1285,19 +1285,19 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>-2.730382442474365</v>
+        <v>-2.730889797210693</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9275010824203491</v>
+        <v>0.9276454448699951</v>
       </c>
       <c r="D43" t="n">
-        <v>0.000321375293424353</v>
+        <v>0.0003005817125085741</v>
       </c>
       <c r="E43" t="n">
-        <v>0.9999220371246338</v>
+        <v>1.000100255012512</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.730382442474365</v>
+        <v>-2.730889797210693</v>
       </c>
     </row>
     <row r="44">
@@ -1305,19 +1305,19 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>-2.730696678161621</v>
+        <v>-2.729916095733643</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7494940757751465</v>
+        <v>0.7492535710334778</v>
       </c>
       <c r="D44" t="n">
-        <v>0.0002185376652050763</v>
+        <v>0.0001978504442377016</v>
       </c>
       <c r="E44" t="n">
-        <v>1.000074148178101</v>
+        <v>0.9997807145118713</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.730696678161621</v>
+        <v>-2.729916095733643</v>
       </c>
     </row>
     <row r="45">
@@ -1325,19 +1325,19 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>-2.728630781173706</v>
+        <v>-2.729013204574585</v>
       </c>
       <c r="C45" t="n">
-        <v>1.70700740814209</v>
+        <v>1.706779837608337</v>
       </c>
       <c r="D45" t="n">
-        <v>0.0002004166599363089</v>
+        <v>-8.673199772601947e-05</v>
       </c>
       <c r="E45" t="n">
-        <v>1.000013589859009</v>
+        <v>1.000048518180847</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.728630781173706</v>
+        <v>-2.729013204574585</v>
       </c>
     </row>
     <row r="46">
@@ -1345,19 +1345,19 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>-4.012826442718506</v>
+        <v>-4.009875774383545</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3076193034648895</v>
+        <v>0.3109912276268005</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.00110167427919805</v>
+        <v>0.002240160247310996</v>
       </c>
       <c r="E46" t="n">
-        <v>1.000001788139343</v>
+        <v>1.000099301338196</v>
       </c>
       <c r="F46" t="n">
-        <v>-4.012826442718506</v>
+        <v>-4.009875774383545</v>
       </c>
     </row>
     <row r="47">
@@ -1365,19 +1365,19 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>-4.010469913482666</v>
+        <v>-4.013538837432861</v>
       </c>
       <c r="C47" t="n">
-        <v>0.3070060014724731</v>
+        <v>0.3050073683261871</v>
       </c>
       <c r="D47" t="n">
-        <v>-1.807853186619468e-05</v>
+        <v>-0.002092826412990689</v>
       </c>
       <c r="E47" t="n">
-        <v>0.999991238117218</v>
+        <v>1.000239133834839</v>
       </c>
       <c r="F47" t="n">
-        <v>-4.010469913482666</v>
+        <v>-4.013538837432861</v>
       </c>
     </row>
     <row r="48">
@@ -1385,19 +1385,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>-4.005923748016357</v>
+        <v>-4.006106853485107</v>
       </c>
       <c r="C48" t="n">
-        <v>0.7815683484077454</v>
+        <v>0.781718373298645</v>
       </c>
       <c r="D48" t="n">
-        <v>0.0003315394278615713</v>
+        <v>0.0004271959769539535</v>
       </c>
       <c r="E48" t="n">
-        <v>1.000056982040405</v>
+        <v>1.000126481056213</v>
       </c>
       <c r="F48" t="n">
-        <v>-4.005923748016357</v>
+        <v>-4.006106853485107</v>
       </c>
     </row>
     <row r="49">
@@ -1405,19 +1405,19 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>-4.006712436676025</v>
+        <v>-4.006804466247559</v>
       </c>
       <c r="C49" t="n">
-        <v>0.5770746469497681</v>
+        <v>0.577343225479126</v>
       </c>
       <c r="D49" t="n">
-        <v>7.188128802226856e-05</v>
+        <v>0.0002950674388557673</v>
       </c>
       <c r="E49" t="n">
-        <v>1.000006794929504</v>
+        <v>1.000085473060608</v>
       </c>
       <c r="F49" t="n">
-        <v>-4.006712436676025</v>
+        <v>-4.006804466247559</v>
       </c>
     </row>
     <row r="50">
@@ -1445,19 +1445,19 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>-1.601157784461975</v>
+        <v>-1.601804614067078</v>
       </c>
       <c r="C51" t="n">
-        <v>1.422007322311401</v>
+        <v>1.422573447227478</v>
       </c>
       <c r="D51" t="n">
-        <v>-7.530116477028059e-07</v>
+        <v>-5.226619578024838e-06</v>
       </c>
       <c r="E51" t="n">
-        <v>0.999755322933197</v>
+        <v>1.00015652179718</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.08957520127296448</v>
+        <v>-0.08961562067270279</v>
       </c>
     </row>
     <row r="52">
@@ -1465,19 +1465,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>-6.147710800170898</v>
+        <v>-6.147852897644043</v>
       </c>
       <c r="C52" t="n">
-        <v>8.232345581054688</v>
+        <v>8.232536315917969</v>
       </c>
       <c r="D52" t="n">
-        <v>1.859689113814511e-08</v>
+        <v>-2.773291640778552e-08</v>
       </c>
       <c r="E52" t="n">
-        <v>1.000047326087952</v>
+        <v>1.000070452690125</v>
       </c>
       <c r="F52" t="n">
-        <v>0.01112548727542162</v>
+        <v>0.01112571731209755</v>
       </c>
     </row>
     <row r="53">
@@ -1485,19 +1485,19 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>-1.683880209922791</v>
+        <v>-1.68439507484436</v>
       </c>
       <c r="C53" t="n">
-        <v>1.364051461219788</v>
+        <v>1.36444616317749</v>
       </c>
       <c r="D53" t="n">
-        <v>-9.001057151181158e-06</v>
+        <v>-2.132464396709111e-05</v>
       </c>
       <c r="E53" t="n">
-        <v>0.9997295737266541</v>
+        <v>1.000027894973755</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.1599143743515015</v>
+        <v>-0.1599744409322739</v>
       </c>
     </row>
     <row r="54">
@@ -1505,19 +1505,19 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>-1.486593246459961</v>
+        <v>-1.486774086952209</v>
       </c>
       <c r="C54" t="n">
-        <v>1.232167959213257</v>
+        <v>1.232326626777649</v>
       </c>
       <c r="D54" t="n">
-        <v>-8.218363944934026e-08</v>
+        <v>4.737090876005823e-06</v>
       </c>
       <c r="E54" t="n">
-        <v>1.000192284584045</v>
+        <v>1.000317215919495</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.1272126734256744</v>
+        <v>-0.1272237300872803</v>
       </c>
     </row>
     <row r="55">
@@ -1525,19 +1525,19 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>-1.407839417457581</v>
+        <v>-1.408030033111572</v>
       </c>
       <c r="C55" t="n">
-        <v>1.302395701408386</v>
+        <v>1.3025723695755</v>
       </c>
       <c r="D55" t="n">
-        <v>1.396796989183713e-08</v>
+        <v>1.559215263569058e-07</v>
       </c>
       <c r="E55" t="n">
-        <v>1.000177502632141</v>
+        <v>1.00031304359436</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.05272182822227478</v>
+        <v>-0.05272884294390678</v>
       </c>
     </row>
     <row r="56">
@@ -1545,19 +1545,19 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>-1.763792634010315</v>
+        <v>-1.763821363449097</v>
       </c>
       <c r="C56" t="n">
-        <v>4.642654418945312</v>
+        <v>4.642699718475342</v>
       </c>
       <c r="D56" t="n">
-        <v>2.445369318593293e-06</v>
+        <v>-5.92712922298233e-06</v>
       </c>
       <c r="E56" t="n">
-        <v>1.000004649162292</v>
+        <v>1.000016212463379</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.3469236791133881</v>
+        <v>-0.346936047077179</v>
       </c>
     </row>
     <row r="57">
@@ -1565,19 +1565,19 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>-8.235054969787598</v>
+        <v>-8.235265731811523</v>
       </c>
       <c r="C57" t="n">
-        <v>5.160768985748291</v>
+        <v>5.160900115966797</v>
       </c>
       <c r="D57" t="n">
-        <v>-1.287976800767865e-07</v>
+        <v>-6.023281002853764e-07</v>
       </c>
       <c r="E57" t="n">
-        <v>0.9999999403953552</v>
+        <v>1.000025510787964</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.006458262447267771</v>
+        <v>-0.00645890086889267</v>
       </c>
     </row>
     <row r="58">
@@ -1585,19 +1585,19 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>-1.812171459197998</v>
+        <v>-1.812093257904053</v>
       </c>
       <c r="C58" t="n">
-        <v>1.801588892936707</v>
+        <v>1.801511168479919</v>
       </c>
       <c r="D58" t="n">
-        <v>-3.178322316443882e-08</v>
+        <v>4.643131745751816e-08</v>
       </c>
       <c r="E58" t="n">
-        <v>1.000025987625122</v>
+        <v>0.9999827742576599</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.0052913180552423</v>
+        <v>-0.005291035864502192</v>
       </c>
     </row>
     <row r="59">
@@ -1605,19 +1605,19 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>-1.26252293586731</v>
+        <v>-1.261915802955627</v>
       </c>
       <c r="C59" t="n">
-        <v>1.446985602378845</v>
+        <v>1.446289658546448</v>
       </c>
       <c r="D59" t="n">
-        <v>-2.826077682982486e-08</v>
+        <v>-4.921272989122372e-08</v>
       </c>
       <c r="E59" t="n">
-        <v>1.000120282173157</v>
+        <v>0.9996392726898193</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09223133325576782</v>
+        <v>0.09218695014715195</v>
       </c>
     </row>
     <row r="60">
@@ -1625,19 +1625,19 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>-2.743758678436279</v>
+        <v>-2.74379825592041</v>
       </c>
       <c r="C60" t="n">
-        <v>2.689458131790161</v>
+        <v>2.689496994018555</v>
       </c>
       <c r="D60" t="n">
-        <v>2.04647001567082e-08</v>
+        <v>-4.945635723174746e-08</v>
       </c>
       <c r="E60" t="n">
-        <v>1.00022828578949</v>
+        <v>1.000242710113525</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.02715023420751095</v>
+        <v>-0.02715067937970161</v>
       </c>
     </row>
     <row r="61">
@@ -1645,19 +1645,19 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>-8.800921440124512</v>
+        <v>-8.801093101501465</v>
       </c>
       <c r="C61" t="n">
-        <v>3.889774322509766</v>
+        <v>3.889824867248535</v>
       </c>
       <c r="D61" t="n">
-        <v>8.411641374550527e-07</v>
+        <v>-1.654392326599918e-05</v>
       </c>
       <c r="E61" t="n">
-        <v>1.000012040138245</v>
+        <v>1.000029444694519</v>
       </c>
       <c r="F61" t="n">
-        <v>0.3148110806941986</v>
+        <v>0.3147991895675659</v>
       </c>
     </row>
     <row r="62">
@@ -1665,19 +1665,19 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>-2.069308519363403</v>
+        <v>-2.069312334060669</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8323891758918762</v>
+        <v>0.8323920965194702</v>
       </c>
       <c r="D62" t="n">
-        <v>1.08377639662649e-06</v>
+        <v>2.030735686275875e-06</v>
       </c>
       <c r="E62" t="n">
-        <v>0.9999987483024597</v>
+        <v>1.000001072883606</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.6184637546539307</v>
+        <v>-0.6184642314910889</v>
       </c>
     </row>
     <row r="63">
@@ -1685,19 +1685,19 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>-3.966099500656128</v>
+        <v>-3.966248512268066</v>
       </c>
       <c r="C63" t="n">
-        <v>2.964862823486328</v>
+        <v>2.964972734451294</v>
       </c>
       <c r="D63" t="n">
-        <v>-2.162152441087528e-06</v>
+        <v>-3.072181925745099e-06</v>
       </c>
       <c r="E63" t="n">
-        <v>1.000041723251343</v>
+        <v>1.000079035758972</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.5008203983306885</v>
+        <v>-0.5008400082588196</v>
       </c>
     </row>
     <row r="64">
@@ -1705,19 +1705,19 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>-2.127125263214111</v>
+        <v>-2.127284288406372</v>
       </c>
       <c r="C64" t="n">
-        <v>3.741887092590332</v>
+        <v>3.742146968841553</v>
       </c>
       <c r="D64" t="n">
-        <v>-7.804501933605934e-07</v>
+        <v>-8.00370798970107e-06</v>
       </c>
       <c r="E64" t="n">
-        <v>0.9999744296073914</v>
+        <v>1.000045895576477</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8073645830154419</v>
+        <v>0.8074150085449219</v>
       </c>
     </row>
     <row r="65">
@@ -1725,19 +1725,19 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>-0.9879722595214844</v>
+        <v>-0.988108217716217</v>
       </c>
       <c r="C65" t="n">
-        <v>4.597902297973633</v>
+        <v>4.598539352416992</v>
       </c>
       <c r="D65" t="n">
-        <v>-7.621476925123716e-07</v>
+        <v>-1.437401575543618e-08</v>
       </c>
       <c r="E65" t="n">
-        <v>0.9999709725379944</v>
+        <v>1.000109314918518</v>
       </c>
       <c r="F65" t="n">
-        <v>1.804965019226074</v>
+        <v>1.80521547794342</v>
       </c>
     </row>
     <row r="66">
@@ -1745,19 +1745,19 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>-4.761985778808594</v>
+        <v>-4.762086868286133</v>
       </c>
       <c r="C66" t="n">
-        <v>6.262670040130615</v>
+        <v>6.262803554534912</v>
       </c>
       <c r="D66" t="n">
-        <v>-1.151545419020295e-07</v>
+        <v>9.582676874231311e-09</v>
       </c>
       <c r="E66" t="n">
-        <v>1.000013709068298</v>
+        <v>1.000035047531128</v>
       </c>
       <c r="F66" t="n">
-        <v>0.16451196372509</v>
+        <v>0.1645155847072601</v>
       </c>
     </row>
     <row r="67">
@@ -1765,19 +1765,19 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>-1.753817200660706</v>
+        <v>-1.753540396690369</v>
       </c>
       <c r="C67" t="n">
-        <v>3.527972221374512</v>
+        <v>3.527435302734375</v>
       </c>
       <c r="D67" t="n">
-        <v>-2.79367509392614e-06</v>
+        <v>3.792466259255889e-06</v>
       </c>
       <c r="E67" t="n">
-        <v>1.000022053718567</v>
+        <v>0.9998680353164673</v>
       </c>
       <c r="F67" t="n">
-        <v>0.878545343875885</v>
+        <v>0.8784165978431702</v>
       </c>
     </row>
     <row r="68">
@@ -1785,19 +1785,19 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>-1.532035827636719</v>
+        <v>-1.532145977020264</v>
       </c>
       <c r="C68" t="n">
-        <v>3.669764280319214</v>
+        <v>3.670035600662231</v>
       </c>
       <c r="D68" t="n">
-        <v>-1.926280503994349e-07</v>
+        <v>1.972244945136481e-06</v>
       </c>
       <c r="E68" t="n">
-        <v>1.000170111656189</v>
+        <v>1.000243544578552</v>
       </c>
       <c r="F68" t="n">
-        <v>1.106778502464294</v>
+        <v>1.10686182975769</v>
       </c>
     </row>
     <row r="69">
@@ -1805,19 +1805,19 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>-7.423778057098389</v>
+        <v>-7.423930644989014</v>
       </c>
       <c r="C69" t="n">
-        <v>5.769177436828613</v>
+        <v>5.769295692443848</v>
       </c>
       <c r="D69" t="n">
-        <v>9.976541548439855e-08</v>
+        <v>-1.302188366025803e-07</v>
       </c>
       <c r="E69" t="n">
-        <v>0.9999866485595703</v>
+        <v>1.000007152557373</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1843697428703308</v>
+        <v>0.1843732893466949</v>
       </c>
     </row>
     <row r="70">
@@ -1825,19 +1825,19 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>-10.81121730804443</v>
+        <v>-10.8077220916748</v>
       </c>
       <c r="C70" t="n">
-        <v>6.553894996643066</v>
+        <v>6.551776885986328</v>
       </c>
       <c r="D70" t="n">
-        <v>1.606316573088407e-07</v>
+        <v>2.296594203698987e-07</v>
       </c>
       <c r="E70" t="n">
-        <v>1.000076293945312</v>
+        <v>0.999752938747406</v>
       </c>
       <c r="F70" t="n">
-        <v>0.195183053612709</v>
+        <v>0.1951200366020203</v>
       </c>
     </row>
     <row r="71">
@@ -1845,19 +1845,19 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>-1.18192183971405</v>
+        <v>-1.181847810745239</v>
       </c>
       <c r="C71" t="n">
-        <v>13.61115264892578</v>
+        <v>13.61128616333008</v>
       </c>
       <c r="D71" t="n">
-        <v>-6.498354423456476e-07</v>
+        <v>7.803531480021775e-05</v>
       </c>
       <c r="E71" t="n">
-        <v>1.000006318092346</v>
+        <v>1.000010371208191</v>
       </c>
       <c r="F71" t="n">
-        <v>-0.3024713695049286</v>
+        <v>-0.3023938834667206</v>
       </c>
     </row>
     <row r="72">
@@ -1865,19 +1865,19 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>-9.307004928588867</v>
+        <v>-9.307252883911133</v>
       </c>
       <c r="C72" t="n">
-        <v>3.455061435699463</v>
+        <v>3.455185413360596</v>
       </c>
       <c r="D72" t="n">
-        <v>1.273066754947649e-05</v>
+        <v>3.615073001128621e-05</v>
       </c>
       <c r="E72" t="n">
-        <v>1.000045418739319</v>
+        <v>1.000074505805969</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.92618465423584</v>
+        <v>-2.926246404647827</v>
       </c>
     </row>
     <row r="73">
@@ -1885,19 +1885,19 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>-24.25570106506348</v>
+        <v>-24.2558650970459</v>
       </c>
       <c r="C73" t="n">
-        <v>2.661346197128296</v>
+        <v>2.661355972290039</v>
       </c>
       <c r="D73" t="n">
-        <v>8.36023627925897e-06</v>
+        <v>9.576179991199751e-07</v>
       </c>
       <c r="E73" t="n">
-        <v>1.00001859664917</v>
+        <v>1.000025153160095</v>
       </c>
       <c r="F73" t="n">
-        <v>0.3713771998882294</v>
+        <v>0.3713721930980682</v>
       </c>
     </row>
     <row r="74">
@@ -1905,19 +1905,19 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>-6.986205577850342</v>
+        <v>-6.986247539520264</v>
       </c>
       <c r="C74" t="n">
-        <v>9.90128231048584</v>
+        <v>9.90134334564209</v>
       </c>
       <c r="D74" t="n">
-        <v>5.389037482927961e-07</v>
+        <v>1.363826072520169e-06</v>
       </c>
       <c r="E74" t="n">
-        <v>0.9999898076057434</v>
+        <v>0.9999959468841553</v>
       </c>
       <c r="F74" t="n">
-        <v>-0.1801760196685791</v>
+        <v>-0.1801762878894806</v>
       </c>
     </row>
     <row r="75">
@@ -1925,19 +1925,19 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>-7.972124099731445</v>
+        <v>-7.972322940826416</v>
       </c>
       <c r="C75" t="n">
-        <v>5.891262054443359</v>
+        <v>5.891409397125244</v>
       </c>
       <c r="D75" t="n">
-        <v>-1.144845711564813e-07</v>
+        <v>-5.072525155469521e-08</v>
       </c>
       <c r="E75" t="n">
-        <v>1.000007390975952</v>
+        <v>1.000032305717468</v>
       </c>
       <c r="F75" t="n">
-        <v>-0.1248203292489052</v>
+        <v>-0.1248233765363693</v>
       </c>
     </row>
     <row r="76">
@@ -1945,19 +1945,19 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>-1.590379595756531</v>
+        <v>-1.591524600982666</v>
       </c>
       <c r="C76" t="n">
-        <v>1.846422076225281</v>
+        <v>1.847762703895569</v>
       </c>
       <c r="D76" t="n">
-        <v>1.898506980069214e-06</v>
+        <v>7.078106591507094e-06</v>
       </c>
       <c r="E76" t="n">
-        <v>0.9997871518135071</v>
+        <v>1.000510334968567</v>
       </c>
       <c r="F76" t="n">
-        <v>0.128021240234375</v>
+        <v>0.128119021654129</v>
       </c>
     </row>
     <row r="77">
@@ -1965,19 +1965,19 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>-5.481981754302979</v>
+        <v>-5.482150077819824</v>
       </c>
       <c r="C77" t="n">
-        <v>8.110734939575195</v>
+        <v>8.110984802246094</v>
       </c>
       <c r="D77" t="n">
-        <v>-9.7501713369752e-09</v>
+        <v>1.293204547891946e-07</v>
       </c>
       <c r="E77" t="n">
-        <v>1.00002908706665</v>
+        <v>1.000059843063354</v>
       </c>
       <c r="F77" t="n">
-        <v>0.03963934630155563</v>
+        <v>0.03964070975780487</v>
       </c>
     </row>
     <row r="78">
@@ -1985,19 +1985,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>-8.085219383239746</v>
+        <v>-8.08209228515625</v>
       </c>
       <c r="C78" t="n">
-        <v>6.448761940002441</v>
+        <v>6.446267604827881</v>
       </c>
       <c r="D78" t="n">
-        <v>7.260096168693053e-08</v>
+        <v>5.197384300714702e-09</v>
       </c>
       <c r="E78" t="n">
-        <v>1.000184535980225</v>
+        <v>0.9997977018356323</v>
       </c>
       <c r="F78" t="n">
-        <v>-0.09854631870985031</v>
+        <v>-0.09850826114416122</v>
       </c>
     </row>
     <row r="79">
@@ -2005,19 +2005,19 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>-1.307573795318604</v>
+        <v>-1.307682514190674</v>
       </c>
       <c r="C79" t="n">
-        <v>1.389535665512085</v>
+        <v>1.389651298522949</v>
       </c>
       <c r="D79" t="n">
-        <v>-1.975818122446071e-07</v>
+        <v>-1.189713714211393e-07</v>
       </c>
       <c r="E79" t="n">
-        <v>1.000204682350159</v>
+        <v>1.000287890434265</v>
       </c>
       <c r="F79" t="n">
-        <v>0.04098094254732132</v>
+        <v>0.04098444432020187</v>
       </c>
     </row>
     <row r="80">
@@ -2025,19 +2025,19 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>-4.485610485076904</v>
+        <v>-4.485779762268066</v>
       </c>
       <c r="C80" t="n">
-        <v>5.532070636749268</v>
+        <v>5.532279014587402</v>
       </c>
       <c r="D80" t="n">
-        <v>-7.166705273675689e-08</v>
+        <v>-6.804310004326908e-08</v>
       </c>
       <c r="E80" t="n">
-        <v>1.000000476837158</v>
+        <v>1.000038146972656</v>
       </c>
       <c r="F80" t="n">
-        <v>-0.03763885051012039</v>
+        <v>-0.03764026239514351</v>
       </c>
     </row>
     <row r="81">
@@ -2045,19 +2045,19 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>-4.956409454345703</v>
+        <v>-4.956513404846191</v>
       </c>
       <c r="C81" t="n">
-        <v>8.075531959533691</v>
+        <v>8.075701713562012</v>
       </c>
       <c r="D81" t="n">
-        <v>1.181592779175844e-08</v>
+        <v>2.060275505755271e-07</v>
       </c>
       <c r="E81" t="n">
-        <v>1.000011086463928</v>
+        <v>1.000032186508179</v>
       </c>
       <c r="F81" t="n">
-        <v>0.02534861490130424</v>
+        <v>0.02534934133291245</v>
       </c>
     </row>
     <row r="82">
@@ -2065,19 +2065,19 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>-8.994211196899414</v>
+        <v>-8.997645378112793</v>
       </c>
       <c r="C82" t="n">
-        <v>7.350141048431396</v>
+        <v>7.352946758270264</v>
       </c>
       <c r="D82" t="n">
-        <v>4.13029624724004e-07</v>
+        <v>1.13692777858887e-07</v>
       </c>
       <c r="E82" t="n">
-        <v>0.9998930692672729</v>
+        <v>1.000274777412415</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1625029891729355</v>
+        <v>0.1625647246837616</v>
       </c>
     </row>
     <row r="83">
@@ -2085,19 +2085,19 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>-1.372599482536316</v>
+        <v>-1.372756123542786</v>
       </c>
       <c r="C83" t="n">
-        <v>1.321548819541931</v>
+        <v>1.321699976921082</v>
       </c>
       <c r="D83" t="n">
-        <v>-1.180374695763931e-07</v>
+        <v>1.122716213330932e-07</v>
       </c>
       <c r="E83" t="n">
-        <v>1.000063896179199</v>
+        <v>1.000178217887878</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.02552533522248268</v>
+        <v>-0.02552804537117481</v>
       </c>
     </row>
     <row r="84">
@@ -2105,19 +2105,19 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>-13.01182079315186</v>
+        <v>-13.01181793212891</v>
       </c>
       <c r="C84" t="n">
-        <v>9.569980621337891</v>
+        <v>9.569977760314941</v>
       </c>
       <c r="D84" t="n">
-        <v>-2.306339297319937e-08</v>
+        <v>-3.816829075020678e-09</v>
       </c>
       <c r="E84" t="n">
-        <v>0.9999504089355469</v>
+        <v>0.9999501705169678</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0107863200828433</v>
+        <v>0.01078633219003677</v>
       </c>
     </row>
     <row r="85">
@@ -2125,19 +2125,19 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>-9.636249542236328</v>
+        <v>-9.634407997131348</v>
       </c>
       <c r="C85" t="n">
-        <v>6.378615856170654</v>
+        <v>6.377397060394287</v>
       </c>
       <c r="D85" t="n">
-        <v>-3.938642834100392e-08</v>
+        <v>1.55434264570431e-07</v>
       </c>
       <c r="E85" t="n">
-        <v>1.000068306922913</v>
+        <v>0.9998772740364075</v>
       </c>
       <c r="F85" t="n">
-        <v>0.0815197080373764</v>
+        <v>0.08150430768728256</v>
       </c>
     </row>
     <row r="86">
@@ -2145,19 +2145,19 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>-5.089261054992676</v>
+        <v>-5.086905956268311</v>
       </c>
       <c r="C86" t="n">
-        <v>12.36370372772217</v>
+        <v>12.35798645019531</v>
       </c>
       <c r="D86" t="n">
-        <v>4.060456415544422e-09</v>
+        <v>8.796572501523769e-07</v>
       </c>
       <c r="E86" t="n">
-        <v>1.000152945518494</v>
+        <v>0.9996903538703918</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2192671597003937</v>
+        <v>-0.2191648781299591</v>
       </c>
     </row>
     <row r="87">
@@ -2165,19 +2165,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>-1.786527037620544</v>
+        <v>-1.786597967147827</v>
       </c>
       <c r="C87" t="n">
-        <v>2.519068956375122</v>
+        <v>2.519170045852661</v>
       </c>
       <c r="D87" t="n">
-        <v>8.414889975938422e-07</v>
+        <v>1.268324126613152e-06</v>
       </c>
       <c r="E87" t="n">
-        <v>0.9999890327453613</v>
+        <v>1.000028967857361</v>
       </c>
       <c r="F87" t="n">
-        <v>0.366252988576889</v>
+        <v>0.3662680387496948</v>
       </c>
     </row>
     <row r="88">
@@ -2185,19 +2185,19 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.52296507358551</v>
+        <v>-1.522966980934143</v>
       </c>
       <c r="C88" t="n">
-        <v>3.791910886764526</v>
+        <v>3.791935920715332</v>
       </c>
       <c r="D88" t="n">
-        <v>1.729754472989953e-07</v>
+        <v>5.94726907365839e-06</v>
       </c>
       <c r="E88" t="n">
-        <v>1.000004053115845</v>
+        <v>1.000009179115295</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.3264118731021881</v>
+        <v>-0.3264077305793762</v>
       </c>
     </row>
     <row r="89">
@@ -2205,19 +2205,19 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>-1.653067588806152</v>
+        <v>-1.65302848815918</v>
       </c>
       <c r="C89" t="n">
-        <v>3.708331108093262</v>
+        <v>3.708399295806885</v>
       </c>
       <c r="D89" t="n">
-        <v>4.781593361258274e-07</v>
+        <v>4.860382614424452e-05</v>
       </c>
       <c r="E89" t="n">
-        <v>1.000004887580872</v>
+        <v>1.000010371208191</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.311866283416748</v>
+        <v>-0.311819851398468</v>
       </c>
     </row>
     <row r="90">
@@ -2225,19 +2225,19 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.437266707420349</v>
+        <v>-1.437423944473267</v>
       </c>
       <c r="C90" t="n">
-        <v>3.038345098495483</v>
+        <v>3.038671016693115</v>
       </c>
       <c r="D90" t="n">
-        <v>2.566370767453918e-06</v>
+        <v>4.380420364213933e-07</v>
       </c>
       <c r="E90" t="n">
-        <v>0.9996657371520996</v>
+        <v>0.9997736215591431</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8004397749900818</v>
+        <v>0.8005240559577942</v>
       </c>
     </row>
     <row r="91">
@@ -2245,19 +2245,19 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>-6.846617221832275</v>
+        <v>-6.846242904663086</v>
       </c>
       <c r="C91" t="n">
-        <v>6.434821128845215</v>
+        <v>6.434468746185303</v>
       </c>
       <c r="D91" t="n">
-        <v>7.105798545126163e-07</v>
+        <v>2.510174113012908e-07</v>
       </c>
       <c r="E91" t="n">
-        <v>0.999836266040802</v>
+        <v>0.999781608581543</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2061746418476105</v>
+        <v>-0.2061638236045837</v>
       </c>
     </row>
     <row r="92">
@@ -2265,19 +2265,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>-1.163515210151672</v>
+        <v>-1.162988901138306</v>
       </c>
       <c r="C92" t="n">
-        <v>2.846080541610718</v>
+        <v>2.844789981842041</v>
       </c>
       <c r="D92" t="n">
-        <v>-3.994271082774503e-07</v>
+        <v>-1.335971319349483e-06</v>
       </c>
       <c r="E92" t="n">
-        <v>1.000149369239807</v>
+        <v>0.9996961951255798</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8412826061248779</v>
+        <v>0.8409004807472229</v>
       </c>
     </row>
     <row r="93">
@@ -2285,19 +2285,19 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>-5.971167087554932</v>
+        <v>-5.971139430999756</v>
       </c>
       <c r="C93" t="n">
-        <v>5.713309288024902</v>
+        <v>5.713281631469727</v>
       </c>
       <c r="D93" t="n">
-        <v>-1.345229208027376e-07</v>
+        <v>-5.83406347232085e-07</v>
       </c>
       <c r="E93" t="n">
-        <v>0.9999262094497681</v>
+        <v>0.9999215006828308</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.1280523687601089</v>
+        <v>-0.128052219748497</v>
       </c>
     </row>
     <row r="94">
@@ -2305,19 +2305,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>-3.651005268096924</v>
+        <v>-3.651480197906494</v>
       </c>
       <c r="C94" t="n">
-        <v>1.810749292373657</v>
+        <v>1.81097936630249</v>
       </c>
       <c r="D94" t="n">
-        <v>1.030767180054681e-06</v>
+        <v>-2.672511072887573e-06</v>
       </c>
       <c r="E94" t="n">
-        <v>1.000019550323486</v>
+        <v>1.00014865398407</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9201202988624573</v>
+        <v>-0.9202427864074707</v>
       </c>
     </row>
     <row r="95">
@@ -2325,19 +2325,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>-2.500334024429321</v>
+        <v>-2.500354766845703</v>
       </c>
       <c r="C95" t="n">
-        <v>3.491670608520508</v>
+        <v>3.491699934005737</v>
       </c>
       <c r="D95" t="n">
-        <v>-2.351816306145338e-07</v>
+        <v>-1.372434255131338e-08</v>
       </c>
       <c r="E95" t="n">
-        <v>1.000001907348633</v>
+        <v>1.000010371208191</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.5089693665504456</v>
+        <v>-0.5089734196662903</v>
       </c>
     </row>
     <row r="96">
@@ -2345,19 +2345,19 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.753012180328369</v>
+        <v>-1.752974033355713</v>
       </c>
       <c r="C96" t="n">
-        <v>0.7783928513526917</v>
+        <v>0.7783750891685486</v>
       </c>
       <c r="D96" t="n">
-        <v>1.171319809145643e-06</v>
+        <v>5.587187956734851e-07</v>
       </c>
       <c r="E96" t="n">
-        <v>0.9999602437019348</v>
+        <v>0.9999381899833679</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4873096346855164</v>
+        <v>-0.4872995018959045</v>
       </c>
     </row>
     <row r="97">
